--- a/design/数据库逻辑表.xlsx
+++ b/design/数据库逻辑表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\C#\BeeNet\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30DD188-B312-4664-932A-CCD659BF174C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7B941-CE0F-45F6-AD6C-487D0E6821F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="810" windowWidth="11535" windowHeight="13680" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
+    <workbookView xWindow="285" yWindow="2085" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,14 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pictures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片的唯一标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MD5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,42 +96,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宽度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>labels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,31 +116,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>add_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>edit_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{normal, screenshot}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>workspace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,22 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture_labels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图片ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,31 +145,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>label_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（注：以下改为驼峰式命名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>database_information</t>
+    <t>Pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PictureLabels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PictureId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LabelName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,16 +249,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -282,28 +280,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,336 +635,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850A96B-B1E7-446F-8DCF-32E17509A47D}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="13" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" t="s">
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" t="s">
+    </row>
+    <row r="24" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
+      <c r="C25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库逻辑表.xlsx
+++ b/design/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\C#\BeeNet\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B7B941-CE0F-45F6-AD6C-487D0E6821F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076260F-1DBC-4D8E-94CE-9C53EB398F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="2085" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
+    <workbookView xWindow="7515" yWindow="1875" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,14 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AddTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EditTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CreateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +214,14 @@
   </si>
   <si>
     <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifiedTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +634,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -691,7 +687,7 @@
     <row r="4" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -703,7 +699,7 @@
     <row r="5" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -715,7 +711,7 @@
     <row r="6" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -742,7 +738,7 @@
     <row r="8" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -754,7 +750,7 @@
     <row r="9" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -766,7 +762,7 @@
     <row r="10" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -780,10 +776,10 @@
     </row>
     <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -798,7 +794,7 @@
     <row r="13" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
@@ -810,7 +806,7 @@
     <row r="14" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -822,7 +818,7 @@
     <row r="15" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -834,7 +830,7 @@
     <row r="16" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -848,10 +844,10 @@
     </row>
     <row r="18" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -866,7 +862,7 @@
     <row r="19" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -880,10 +876,10 @@
     </row>
     <row r="21" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>20</v>
@@ -898,7 +894,7 @@
     <row r="22" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>25</v>
@@ -913,7 +909,7 @@
     <row r="23" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>29</v>
@@ -925,7 +921,7 @@
     <row r="24" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>

--- a/design/数据库逻辑表.xlsx
+++ b/design/数据库逻辑表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\C#\BeeNet\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A076260F-1DBC-4D8E-94CE-9C53EB398F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0E9B5-DA26-4C86-8313-3B4E0D96AE5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7515" yWindow="1875" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,14 @@
   </si>
   <si>
     <t>ModifiedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkspacePicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作区的名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -291,6 +299,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -300,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -314,6 +348,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850A96B-B1E7-446F-8DCF-32E17509A47D}">
-  <dimension ref="A2:F25"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -882,7 +922,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -934,12 +974,45 @@
       <c r="A25" s="2"/>
       <c r="C25" s="3"/>
     </row>
+    <row r="26" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库逻辑表.xlsx
+++ b/design/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\C#\BeeNet\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE0E9B5-DA26-4C86-8313-3B4E0D96AE5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE6C09D-3502-4F05-A9CC-A0161A3E6F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="1875" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
+    <workbookView xWindow="135" yWindow="1950" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,23 +100,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{normal, screenshot}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,26 +149,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PictureLabels</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -230,6 +190,18 @@
   </si>
   <si>
     <t>工作区的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenShots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图的唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkspaceName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -323,6 +295,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -334,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,10 +333,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,16 +660,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850A96B-B1E7-446F-8DCF-32E17509A47D}">
-  <dimension ref="A2:F27"/>
+  <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
@@ -708,11 +697,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -721,253 +710,253 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>40</v>
+      <c r="A18" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>43</v>
+      <c r="A21" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -975,26 +964,26 @@
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>48</v>
+      <c r="A26" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>6</v>
@@ -1006,13 +995,16 @@
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A11:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库逻辑表.xlsx
+++ b/design/数据库逻辑表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\C#\BeeNet\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE6C09D-3502-4F05-A9CC-A0161A3E6F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC14EC81-9433-46DC-8CA1-5A8C05D1CB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="1950" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,10 +174,6 @@
   </si>
   <si>
     <t>CreatedTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModifiedTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -662,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850A96B-B1E7-446F-8DCF-32E17509A47D}">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -698,10 +690,10 @@
     </row>
     <row r="3" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -710,16 +702,16 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -728,7 +720,7 @@
     <row r="5" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -740,28 +732,28 @@
     <row r="6" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -770,51 +762,51 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -826,10 +818,10 @@
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -838,43 +830,46 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="15" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
@@ -882,129 +877,101 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库逻辑表.xlsx
+++ b/design/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\C#\BeeNet\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC14EC81-9433-46DC-8CA1-5A8C05D1CB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C839DB-B412-4D6D-A4DD-7114BCC6D9C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1950" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
+    <workbookView xWindow="525" yWindow="900" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,11 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内容
-[{id,object}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主键、自动递增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CreatedTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +185,54 @@
   </si>
   <si>
     <t>WorkspaceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +360,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -652,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850A96B-B1E7-446F-8DCF-32E17509A47D}">
-  <dimension ref="A2:F30"/>
+  <dimension ref="A2:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -689,11 +731,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -702,13 +744,13 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -718,9 +760,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -730,7 +772,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -745,9 +787,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -756,10 +798,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -768,210 +810,270 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
     <row r="17" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="9"/>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="20" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="21" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/数据库逻辑表.xlsx
+++ b/design/数据库逻辑表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\C#\BeeNet\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C839DB-B412-4D6D-A4DD-7114BCC6D9C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B194B4-9808-418C-B815-0DCED3208F0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="900" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
+    <workbookView xWindow="-210" yWindow="855" windowWidth="13410" windowHeight="12735" xr2:uid="{9583D836-7BAB-4C88-AEBD-30A8475DAB13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,16 +367,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850A96B-B1E7-446F-8DCF-32E17509A47D}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -748,7 +748,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
@@ -758,9 +758,12 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -772,7 +775,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -787,7 +790,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -799,7 +802,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="A10" s="5"/>
     </row>
     <row r="11" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -843,7 +846,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
@@ -855,7 +858,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
@@ -873,7 +876,7 @@
       <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -890,7 +893,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
@@ -902,7 +905,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -914,7 +917,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
@@ -926,7 +929,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
@@ -953,7 +956,7 @@
       <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -970,7 +973,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -985,7 +988,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1002,7 +1005,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1021,7 +1024,7 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1038,7 +1041,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
